--- a/biology/Zoologie/Glyphoglossus_molossus/Glyphoglossus_molossus.xlsx
+++ b/biology/Zoologie/Glyphoglossus_molossus/Glyphoglossus_molossus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphoglossus molossus est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphoglossus molossus est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos, au Cambodge et au Viêt Nam entre 200 et 600 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos, au Cambodge et au Viêt Nam entre 200 et 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyphoglossus molossus mesure environ 50 mm. Son dos est brun olive. Ses flancs et ses membres sont marbrés de brun. Son ventre est blanc. La partie charnue de sa mâchoire inférieure est tuméfiée, tronquée en avant, et forme un disque semi-circulaire.
 </t>
@@ -573,9 +589,11 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette grenouille est considérée comme un mets très délicat dans la cuisine thaïlandaise[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette grenouille est considérée comme un mets très délicat dans la cuisine thaïlandaise.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'espèce, du grec Μολοσσός, molossus, « à l'excès », lui a été donné en référence à sa forme très arrondie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Günther, 1869 "1868" : First account of species of tailless batrachians added to the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 1868, p. 478-490 (texte intégral).</t>
         </is>
